--- a/Result Comparison tracker.xlsx
+++ b/Result Comparison tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIcourse\MachineLearnig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8247AAD1-108E-4EDD-8C8A-250C865E8BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEA5E23-D2A7-455F-B15F-EEE8BC5E9B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CCF1C9A3-4CFA-4042-AE57-9CE611CD5926}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
   <si>
     <t>50 Start Up Assignment</t>
   </si>
@@ -78,6 +78,9 @@
     <t>default=best</t>
   </si>
   <si>
+    <t>squared_error</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
@@ -93,52 +96,17 @@
     <t>poisson</t>
   </si>
   <si>
-    <t>getting error</t>
-  </si>
-  <si>
-    <r>
-      <t>KeyError</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>: 'absolute_error'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>KeyError</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>: 'poisson'</t>
-    </r>
+    <t>As per Yogana comment, differnce in result on each run for same paramater is based on  data used. In real time, it would be same irrespective of multiple runs with same parameters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,21 +149,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FFB22B31"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,8 +187,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -256,11 +217,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -268,13 +238,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -283,7 +253,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -292,25 +262,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4F2702-F6B7-43F4-9DE4-1394DB5ECEA3}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L2"/>
+      <selection activeCell="H20" sqref="H20:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,43 +618,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="4" spans="1:12" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -846,7 +824,7 @@
         <v>0.81296283670202296</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>11</v>
       </c>
@@ -854,8 +832,9 @@
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>2</v>
       </c>
@@ -868,8 +847,10 @@
       <c r="D19" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -879,152 +860,221 @@
       <c r="C20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="2">
         <v>0.90611117119332496</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="2">
         <v>0.915475039586225</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="2">
         <v>0.91719347850065303</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="2">
+        <v>0.91632976093576202</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.88898800356776797</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2">
         <v>0.95120883035978898</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="2">
         <v>0.88899538718065296</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
         <v>3</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.92107254027129304</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.91055354142483802</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.91808526397530199</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.92650325765174901</v>
+      </c>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0.92107254027129304</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0.91055354142483802</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0.91808526397530199</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0.92650325765174901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>4</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="D24" s="2">
+        <v>0.74801226891648498</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.84118117985306895</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.718466212395239</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.66150968625755902</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>5</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="20">
+        <v>0.96054442672612095</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.88156475304774695</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>6</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="5">
-        <v>0.74801226891648498</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0.84118117985306895</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0.718466212395239</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0.66150968625755902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>5</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="D26" s="2">
+        <v>0.39662394919433003</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.88156475304774695</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>6</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="2">
+        <v>0.73906139868490695</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.72756472290007701</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0.75373714871298902</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>8</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>24</v>
-      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.71235523150765701</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.28065493700135502</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:L2"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A18:E18"/>
+    <mergeCell ref="H20:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
